--- a/data/all_tr_combine.xlsx
+++ b/data/all_tr_combine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="62">
   <si>
     <t>Nº Pedido</t>
   </si>
@@ -61,6 +61,12 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>Doc. EIPSA</t>
+  </si>
+  <si>
+    <t>Doc. Cliente</t>
+  </si>
+  <si>
     <t>P-24/066</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>P-22/074</t>
   </si>
   <si>
+    <t>P-24/079</t>
+  </si>
+  <si>
     <t>S00</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t>LB</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>ARAMCO/RIYAS</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>ADNOC DALMA</t>
   </si>
   <si>
+    <t>QATARBOP/TR</t>
+  </si>
+  <si>
     <t>CAUDAL</t>
   </si>
   <si>
@@ -112,6 +127,9 @@
     <t>22-074-S06-CAL-0007</t>
   </si>
   <si>
+    <t>24-079-ESP-0003</t>
+  </si>
+  <si>
     <t>V-1065110910-0121</t>
   </si>
   <si>
@@ -130,6 +148,9 @@
     <t>V-1040010910-0015</t>
   </si>
   <si>
+    <t>3998_18-1062010910-00002</t>
+  </si>
+  <si>
     <t>NDE PROCEDURES</t>
   </si>
   <si>
@@ -148,13 +169,22 @@
     <t>CALCULATION FOR FE &amp; FO (ARZANAH)</t>
   </si>
   <si>
+    <t>BOP - CALCULATIONS AND OVERALL DRAWINGS FOR ORIFICE PLATES, RESTRICTION ORIFICE &amp; VENTURIS</t>
+  </si>
+  <si>
     <t>A01</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Aprobado</t>
   </si>
   <si>
     <t>Com. Mayores</t>
+  </si>
+  <si>
+    <t>Com. Menores</t>
   </si>
   <si>
     <t>Procedimientos</t>
@@ -531,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,46 +613,52 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1065110910</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>1065110910</v>
@@ -631,45 +667,45 @@
         <v>45735.28582175926</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1065110910</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N3">
         <v>1065110910</v>
@@ -678,45 +714,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>1065110910</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1065110910</v>
@@ -725,45 +761,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>1037010910</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1037010910</v>
@@ -772,45 +808,45 @@
         <v>45722.29728009259</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>1037010910</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1037010910</v>
@@ -819,45 +855,45 @@
         <v>45722.29728009259</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1065110910</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>1065110910</v>
@@ -866,45 +902,45 @@
         <v>45735.28582175926</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1065110910</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1065110910</v>
@@ -913,45 +949,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>1065110910</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N9">
         <v>1065110910</v>
@@ -960,45 +996,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1037010910</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N10">
         <v>1037010910</v>
@@ -1007,45 +1043,45 @@
         <v>45722.29728009259</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>1037010910</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N11">
         <v>1037010910</v>
@@ -1054,45 +1090,45 @@
         <v>45722.29728009259</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>1040010910</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N12">
         <v>1040010910</v>
@@ -1101,45 +1137,45 @@
         <v>45743.26939814815</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>1065110910</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N13">
         <v>1065110910</v>
@@ -1148,45 +1184,45 @@
         <v>45735.28582175926</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>1065110910</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N14">
         <v>1065110910</v>
@@ -1195,45 +1231,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>1065110910</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1065110910</v>
@@ -1242,45 +1278,45 @@
         <v>45734.29280092593</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>1037010910</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1037010910</v>
@@ -1291,43 +1327,43 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>1037010910</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>1037010910</v>
@@ -1338,43 +1374,43 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>1040010910</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N18">
         <v>1040010910</v>
@@ -1385,43 +1421,43 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>1065110910</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>1065110910</v>
@@ -1432,43 +1468,43 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>1065110910</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1065110910</v>
@@ -1479,43 +1515,43 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>1037010910</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1037010910</v>
@@ -1526,43 +1562,43 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>1037010910</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>1037010910</v>
@@ -1573,43 +1609,43 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>1040010910</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1040010910</v>
@@ -1620,43 +1656,43 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>1065110910</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N24">
         <v>1065110910</v>
@@ -1667,43 +1703,43 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>1065110910</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1065110910</v>
@@ -1714,43 +1750,43 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <v>1037010910</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1037010910</v>
@@ -1761,43 +1797,43 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1037010910</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N27">
         <v>1037010910</v>
@@ -1808,43 +1844,43 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>1040010910</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1040010910</v>
@@ -1855,43 +1891,43 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F29">
         <v>1065110910</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N29">
         <v>1065110910</v>
@@ -1902,43 +1938,43 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1065110910</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N30">
         <v>1065110910</v>
@@ -1949,43 +1985,43 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>1037010910</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N31">
         <v>1037010910</v>
@@ -1996,43 +2032,43 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>1037010910</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1037010910</v>
@@ -2043,43 +2079,43 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>1040010910</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M33" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N33">
         <v>1040010910</v>
@@ -2090,43 +2126,43 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F34">
         <v>1065110910</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1065110910</v>
@@ -2137,43 +2173,43 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F35">
         <v>1065110910</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L35" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N35">
         <v>1065110910</v>
@@ -2184,46 +2220,46 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>1037010910</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="N36">
+        <v>1037010910</v>
       </c>
       <c r="O36" s="2">
         <v>45722.29728009259</v>
@@ -2231,49 +2267,2399 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>1037010910</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L37" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="N37">
+        <v>1037010910</v>
       </c>
       <c r="O37" s="2">
         <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>1040010910</v>
+      </c>
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38">
+        <v>1040010910</v>
+      </c>
+      <c r="O38" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <v>1040010910</v>
+      </c>
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39">
+        <v>1040010910</v>
+      </c>
+      <c r="O39" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>1065110910</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40">
+        <v>1065110910</v>
+      </c>
+      <c r="O40" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>1065110910</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41">
+        <v>1065110910</v>
+      </c>
+      <c r="O41" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>1040010910</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42">
+        <v>1040010910</v>
+      </c>
+      <c r="O42" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>1065110910</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43">
+        <v>1065110910</v>
+      </c>
+      <c r="O43" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>1065110910</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44">
+        <v>1065110910</v>
+      </c>
+      <c r="O44" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>1040010910</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N45">
+        <v>1040010910</v>
+      </c>
+      <c r="O45" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>1065110910</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N46">
+        <v>1065110910</v>
+      </c>
+      <c r="O46" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>1065110910</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47">
+        <v>1065110910</v>
+      </c>
+      <c r="O47" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48">
+        <v>1062010910</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48">
+        <v>1062010910</v>
+      </c>
+      <c r="O48" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>1062010910</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49">
+        <v>1062010910</v>
+      </c>
+      <c r="O49" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>1062010910</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" t="s">
+        <v>61</v>
+      </c>
+      <c r="N50">
+        <v>1062010910</v>
+      </c>
+      <c r="O50" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <v>1062010910</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51">
+        <v>1062010910</v>
+      </c>
+      <c r="O51" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>1040010910</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52" t="s">
+        <v>61</v>
+      </c>
+      <c r="N52">
+        <v>1040010910</v>
+      </c>
+      <c r="O52" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <v>1065110910</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" t="s">
+        <v>58</v>
+      </c>
+      <c r="M53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N53">
+        <v>1065110910</v>
+      </c>
+      <c r="O53" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <v>1065110910</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" t="s">
+        <v>58</v>
+      </c>
+      <c r="M54" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54">
+        <v>1065110910</v>
+      </c>
+      <c r="O54" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>1037010910</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" t="s">
+        <v>61</v>
+      </c>
+      <c r="N55">
+        <v>1037010910</v>
+      </c>
+      <c r="O55" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>1037010910</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N56">
+        <v>1037010910</v>
+      </c>
+      <c r="O56" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>1062010910</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" t="s">
+        <v>61</v>
+      </c>
+      <c r="N57">
+        <v>1062010910</v>
+      </c>
+      <c r="O57" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>1062010910</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M58" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58">
+        <v>1062010910</v>
+      </c>
+      <c r="O58" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>1062010910</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" t="s">
+        <v>58</v>
+      </c>
+      <c r="M59" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59">
+        <v>1062010910</v>
+      </c>
+      <c r="O59" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>1062010910</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" t="s">
+        <v>61</v>
+      </c>
+      <c r="N60">
+        <v>1062010910</v>
+      </c>
+      <c r="O60" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>1062010910</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" t="s">
+        <v>58</v>
+      </c>
+      <c r="M61" t="s">
+        <v>61</v>
+      </c>
+      <c r="N61">
+        <v>1062010910</v>
+      </c>
+      <c r="O61" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62">
+        <v>1062010910</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" t="s">
+        <v>56</v>
+      </c>
+      <c r="L62" t="s">
+        <v>58</v>
+      </c>
+      <c r="M62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N62">
+        <v>1062010910</v>
+      </c>
+      <c r="O62" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>1062010910</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" t="s">
+        <v>56</v>
+      </c>
+      <c r="L63" t="s">
+        <v>58</v>
+      </c>
+      <c r="M63" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63">
+        <v>1062010910</v>
+      </c>
+      <c r="O63" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64">
+        <v>1062010910</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" t="s">
+        <v>56</v>
+      </c>
+      <c r="L64" t="s">
+        <v>58</v>
+      </c>
+      <c r="M64" t="s">
+        <v>61</v>
+      </c>
+      <c r="N64">
+        <v>1062010910</v>
+      </c>
+      <c r="O64" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65">
+        <v>1062010910</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" t="s">
+        <v>56</v>
+      </c>
+      <c r="L65" t="s">
+        <v>58</v>
+      </c>
+      <c r="M65" t="s">
+        <v>61</v>
+      </c>
+      <c r="N65">
+        <v>1062010910</v>
+      </c>
+      <c r="O65" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66">
+        <v>1062010910</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" t="s">
+        <v>56</v>
+      </c>
+      <c r="L66" t="s">
+        <v>58</v>
+      </c>
+      <c r="M66" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66">
+        <v>1062010910</v>
+      </c>
+      <c r="O66" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>1062010910</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67">
+        <v>1062010910</v>
+      </c>
+      <c r="O67" s="2">
+        <v>45750.30015046296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <v>1040010910</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" t="s">
+        <v>60</v>
+      </c>
+      <c r="M68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68">
+        <v>1040010910</v>
+      </c>
+      <c r="O68" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>1065110910</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" t="s">
+        <v>61</v>
+      </c>
+      <c r="N69">
+        <v>1065110910</v>
+      </c>
+      <c r="O69" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>1065110910</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" t="s">
+        <v>58</v>
+      </c>
+      <c r="M70" t="s">
+        <v>61</v>
+      </c>
+      <c r="N70">
+        <v>1065110910</v>
+      </c>
+      <c r="O70" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71">
+        <v>1037010910</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" t="s">
+        <v>59</v>
+      </c>
+      <c r="M71" t="s">
+        <v>61</v>
+      </c>
+      <c r="N71">
+        <v>1037010910</v>
+      </c>
+      <c r="O71" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>1037010910</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72" t="s">
+        <v>54</v>
+      </c>
+      <c r="L72" t="s">
+        <v>59</v>
+      </c>
+      <c r="M72" t="s">
+        <v>61</v>
+      </c>
+      <c r="N72">
+        <v>1037010910</v>
+      </c>
+      <c r="O72" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>1040010910</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L73" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" t="s">
+        <v>61</v>
+      </c>
+      <c r="N73">
+        <v>1040010910</v>
+      </c>
+      <c r="O73" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>1065110910</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" t="s">
+        <v>58</v>
+      </c>
+      <c r="M74" t="s">
+        <v>61</v>
+      </c>
+      <c r="N74">
+        <v>1065110910</v>
+      </c>
+      <c r="O74" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>1065110910</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75">
+        <v>1065110910</v>
+      </c>
+      <c r="O75" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>1037010910</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>54</v>
+      </c>
+      <c r="L76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N76">
+        <v>1037010910</v>
+      </c>
+      <c r="O76" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77">
+        <v>1037010910</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77" t="s">
+        <v>59</v>
+      </c>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77">
+        <v>1037010910</v>
+      </c>
+      <c r="O77" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78">
+        <v>1040010910</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" t="s">
+        <v>54</v>
+      </c>
+      <c r="L78" t="s">
+        <v>60</v>
+      </c>
+      <c r="M78" t="s">
+        <v>61</v>
+      </c>
+      <c r="N78">
+        <v>1040010910</v>
+      </c>
+      <c r="O78" s="2">
+        <v>45743.26939814815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79">
+        <v>1065110910</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" t="s">
+        <v>61</v>
+      </c>
+      <c r="N79">
+        <v>1065110910</v>
+      </c>
+      <c r="O79" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>1065110910</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" t="s">
+        <v>58</v>
+      </c>
+      <c r="M80" t="s">
+        <v>61</v>
+      </c>
+      <c r="N80">
+        <v>1065110910</v>
+      </c>
+      <c r="O80" s="2">
+        <v>45734.29280092593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>1037010910</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81" t="s">
+        <v>54</v>
+      </c>
+      <c r="L81" t="s">
+        <v>59</v>
+      </c>
+      <c r="M81" t="s">
+        <v>61</v>
+      </c>
+      <c r="N81">
+        <v>1037010910</v>
+      </c>
+      <c r="O81" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82">
+        <v>1037010910</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" t="s">
+        <v>49</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82" t="s">
+        <v>54</v>
+      </c>
+      <c r="L82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M82" t="s">
+        <v>61</v>
+      </c>
+      <c r="N82">
+        <v>1037010910</v>
+      </c>
+      <c r="O82" s="2">
+        <v>45722.29728009259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>1040010910</v>
+      </c>
+      <c r="I83" t="s">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" t="s">
+        <v>54</v>
+      </c>
+      <c r="L83" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" t="s">
+        <v>61</v>
+      </c>
+      <c r="N83">
+        <v>1040010910</v>
+      </c>
+      <c r="O83" s="2">
+        <v>45743.26939814815</v>
+      </c>
+      <c r="P83" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84">
+        <v>1065110910</v>
+      </c>
+      <c r="I84" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" t="s">
+        <v>58</v>
+      </c>
+      <c r="M84" t="s">
+        <v>61</v>
+      </c>
+      <c r="N84">
+        <v>1065110910</v>
+      </c>
+      <c r="O84" s="2">
+        <v>45734.29280092593</v>
+      </c>
+      <c r="P84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85">
+        <v>1065110910</v>
+      </c>
+      <c r="I85" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" t="s">
+        <v>58</v>
+      </c>
+      <c r="M85" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85">
+        <v>1065110910</v>
+      </c>
+      <c r="O85" s="2">
+        <v>45734.29280092593</v>
+      </c>
+      <c r="P85" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>54</v>
+      </c>
+      <c r="L86" t="s">
+        <v>59</v>
+      </c>
+      <c r="M86" t="s">
+        <v>61</v>
+      </c>
+      <c r="N86" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86" s="2">
+        <v>45722.29728009259</v>
+      </c>
+      <c r="P86" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87" t="s">
+        <v>54</v>
+      </c>
+      <c r="L87" t="s">
+        <v>59</v>
+      </c>
+      <c r="M87" t="s">
+        <v>61</v>
+      </c>
+      <c r="N87" t="s">
+        <v>30</v>
+      </c>
+      <c r="O87" s="2">
+        <v>45722.29728009259</v>
+      </c>
+      <c r="P87" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
